--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.020320.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.020320.xlsx_with_dialog_acts.xlsx
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3091,12 +3091,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3767,12 +3767,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3935,12 +3935,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4019,12 +4019,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4863,12 +4863,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5669,12 +5669,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6429,12 +6429,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6475,12 +6475,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6517,12 +6517,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6815,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7113,12 +7113,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7155,12 +7155,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7239,12 +7239,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
